--- a/biology/Botanique/Pulchranthus_variegatus/Pulchranthus_variegatus.xlsx
+++ b/biology/Botanique/Pulchranthus_variegatus/Pulchranthus_variegatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulchranthus variegatus est une espèce herbacée appartenant à la famille des Acanthaceae présente dans le nord de l'Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « JUSTICIA (variegata) foliis ovatis, floribus ſpicatis.   (Tabula 4.)
 Frutex ramoſus, quinquepedalis, ramis longis, rectis, cylindraceis. Folia ovata, acuta, glabra, integerrima, ſubſeſſilia. Flores ſpicati, terminales, verticillati ; verticillis quadri-floris; floribus utrinque binis, ſeſſilibus. Calix duobus bracteis minimis, ad baſim munitur. Corolla monopetala, alba, tubuloſa, incurva, ventricoſa, bilabiata ; labio ſuperiori bifido, erecto ; labio inferiori trifido, lobis latéralibus cæasruleis, inter-medio croceo, punctis violaceis aſperſo, omnibus acutis. Stamina; filamenta duo, ad faucem inſerta, ſub labio ſuperiori. Antheræ oblongæ, utrinque emarginatæ, bilocularæ, loculis remotis. Pistillum; germen oblongum, compreſſum, pedicellatum, utrinque in medium emarginatum. Stylus longus. Stigma bilamellatum. Pericarpium; capſula ovato-oblonga, acuta, compreſſa, utrinque in medio ſinuata, pedicellata, bivalvis ; valvulis ab apice ad baſim longitudinaliter, per medium, ungue élaſtico, dehiſcentibus, diſſepimento valvulis contrario. Semina quatuor, lenticularia. 
 Florebat, fructumque ferebat Septembri. 
